--- a/Discharge/RatingCurves/Station01_RatingCurve.xlsx
+++ b/Discharge/RatingCurves/Station01_RatingCurve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\Ecuador22\Ecuador2022\Discharge\RatingCurves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB1D9B8-D521-42F8-B068-04D8CDD8EBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926D8F24-82F1-4145-967D-4E63085B60DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7810" xr2:uid="{C41D5781-109A-4DE2-B42F-E7C4834BE6A3}"/>
+    <workbookView xWindow="23040" yWindow="1860" windowWidth="14400" windowHeight="14500" xr2:uid="{C41D5781-109A-4DE2-B42F-E7C4834BE6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,20 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31E25DE-1C2D-48C2-9E59-A522B7960B31}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44714</v>
       </c>
@@ -452,7 +452,7 @@
         <v>1.6000000000000007E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44719</v>
       </c>
@@ -467,6 +467,34 @@
       </c>
       <c r="E4">
         <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E5">
+        <v>3.1209999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E6">
+        <v>1.6420000000000011E-2</v>
       </c>
     </row>
   </sheetData>
